--- a/docs/StructureDefinition-extension-prescription-type.xlsx
+++ b/docs/StructureDefinition-extension-prescription-type.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://roadxcore.com/fhir/v1/StructureDefinition/extension-prescription-type</t>
+    <t>https://www.sehatuk.ae/uae-fhir/r4/StructureDefinition/extension-prescription-type</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-19T11:55:47+04:00</t>
+    <t>2022-11-19T09:21:48+04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -241,55 +241,55 @@
 </t>
   </si>
   <si>
+    <t>Extension.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Extension.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Extension.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Extension.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -342,7 +342,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://roadxcore.com/terminology/ValueSet/prescription-type</t>
+    <t>https://www.sehatuk.ae/terminology/ValueSet/prescription-type</t>
   </si>
   <si>
     <t>Extension.value[x].id</t>
@@ -838,15 +838,15 @@
   <cols>
     <col min="1" max="1" width="35.67578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="21.3125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.19921875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.1484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.07421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.06640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="42.953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="42.93359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -855,19 +855,19 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.13671875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="19.796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.359375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="19.80078125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="59.3671875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.84375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="23.2734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
@@ -1078,7 +1078,7 @@
         <v>73</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>70</v>
@@ -1086,7 +1086,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1097,25 +1097,25 @@
         <v>71</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1166,27 +1166,27 @@
         <v>70</v>
       </c>
       <c r="AE3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1209,13 +1209,13 @@
         <v>70</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>25</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1254,19 +1254,19 @@
         <v>70</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>71</v>
@@ -1278,7 +1278,7 @@
         <v>70</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>70</v>
@@ -1294,10 +1294,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>70</v>
@@ -1371,10 +1371,10 @@
         <v>89</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>70</v>
@@ -1396,10 +1396,10 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>70</v>
@@ -1472,7 +1472,7 @@
         <v>71</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>70</v>
@@ -1496,10 +1496,10 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>103</v>
@@ -1572,7 +1572,7 @@
         <v>71</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>70</v>
@@ -1597,25 +1597,25 @@
         <v>71</v>
       </c>
       <c r="F8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J8" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="J8" t="s" s="2">
+      <c r="K8" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1666,22 +1666,22 @@
         <v>70</v>
       </c>
       <c r="AE8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="9" hidden="true">
@@ -1709,7 +1709,7 @@
         <v>70</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>109</v>
@@ -1756,19 +1756,19 @@
         <v>70</v>
       </c>
       <c r="AA9" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB9" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AB9" t="s" s="2">
+      <c r="AC9" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD9" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="AC9" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD9" t="s" s="2">
+      <c r="AE9" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>71</v>
@@ -1780,10 +1780,10 @@
         <v>70</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" hidden="true">
@@ -1903,25 +1903,25 @@
         <v>71</v>
       </c>
       <c r="F11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J11" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="G11" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="J11" t="s" s="2">
+      <c r="K11" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1972,22 +1972,22 @@
         <v>70</v>
       </c>
       <c r="AE11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>81</v>
       </c>
     </row>
     <row r="12" hidden="true">
@@ -2015,7 +2015,7 @@
         <v>70</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>109</v>
@@ -2062,19 +2062,19 @@
         <v>70</v>
       </c>
       <c r="AA12" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB12" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AB12" t="s" s="2">
+      <c r="AC12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD12" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="AC12" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD12" t="s" s="2">
+      <c r="AE12" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>71</v>
@@ -2086,10 +2086,10 @@
         <v>70</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" hidden="true">
@@ -2102,10 +2102,10 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>70</v>
@@ -2184,7 +2184,7 @@
         <v>71</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>70</v>
@@ -2209,7 +2209,7 @@
         <v>71</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>70</v>
@@ -2221,7 +2221,7 @@
         <v>103</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>130</v>
@@ -2286,7 +2286,7 @@
         <v>71</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>70</v>
@@ -2308,10 +2308,10 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>70</v>
@@ -2388,7 +2388,7 @@
         <v>71</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>70</v>
@@ -2413,7 +2413,7 @@
         <v>71</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>70</v>
@@ -2425,7 +2425,7 @@
         <v>103</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>143</v>
@@ -2490,7 +2490,7 @@
         <v>71</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>70</v>
@@ -2515,7 +2515,7 @@
         <v>71</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>70</v>
@@ -2594,7 +2594,7 @@
         <v>71</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>70</v>
@@ -2619,7 +2619,7 @@
         <v>71</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>70</v>
@@ -2631,7 +2631,7 @@
         <v>103</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>157</v>
@@ -2698,7 +2698,7 @@
         <v>71</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>70</v>

--- a/docs/StructureDefinition-extension-prescription-type.xlsx
+++ b/docs/StructureDefinition-extension-prescription-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T09:21:48+04:00</t>
+    <t>2022-11-19T09:53:21+04:00</t>
   </si>
   <si>
     <t>Publisher</t>
